--- a/BalanceSheet/APH_bal.xlsx
+++ b/BalanceSheet/APH_bal.xlsx
@@ -1698,7 +1698,7 @@
         <v>407900000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>282200000.0</v>
+        <v>394800000.0</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>263800000.0</v>
@@ -2658,19 +2658,19 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>14200000.0</v>
+        <v>315000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>36600000.0</v>
+        <v>201000000.0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>-10900000.0</v>
+        <v>254000000.0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>-8300000.0</v>
+        <v>271000000.0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>13400000.0</v>
+        <v>271000000.0</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>260400000.0</v>
@@ -3237,7 +3237,7 @@
         <v>2105700000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>2068400000.0</v>
+        <v>2068100000.0</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>1938100000.0</v>
@@ -4182,13 +4182,11 @@
           <t>Shares (Common)</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>599200000.0</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>598600000.0</v>
+        <v>600700000.0</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>598310000.0</v>
@@ -4454,7 +4452,7 @@
         <v>2709000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>2897000000.0</v>
+        <v>2698100000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>2962400000.0</v>
@@ -4581,7 +4579,7 @@
         <v>5093000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>3806000000.0</v>
+        <v>3606700000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>3949100000.0</v>
